--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H2">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>3780.116336147095</v>
+        <v>351.1415973005678</v>
       </c>
       <c r="R2">
-        <v>34021.04702532385</v>
+        <v>3160.27437570511</v>
       </c>
       <c r="S2">
-        <v>0.1011701522827499</v>
+        <v>0.01482206702468912</v>
       </c>
       <c r="T2">
-        <v>0.1011701522827499</v>
+        <v>0.01482206702468911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H3">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>6417.339732850234</v>
+        <v>3345.365825270065</v>
       </c>
       <c r="R3">
-        <v>57756.05759565211</v>
+        <v>30108.29242743058</v>
       </c>
       <c r="S3">
-        <v>0.1717521844008497</v>
+        <v>0.14121151371825</v>
       </c>
       <c r="T3">
-        <v>0.1717521844008497</v>
+        <v>0.1412115137182499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H4">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>2760.412514870882</v>
+        <v>1439.005892679354</v>
       </c>
       <c r="R4">
-        <v>24843.71263383793</v>
+        <v>12951.05303411419</v>
       </c>
       <c r="S4">
-        <v>0.0738790369550755</v>
+        <v>0.06074199683029551</v>
       </c>
       <c r="T4">
-        <v>0.0738790369550755</v>
+        <v>0.06074199683029549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>5059.77675210399</v>
+        <v>901.6124190559067</v>
       </c>
       <c r="R5">
-        <v>45537.99076893591</v>
+        <v>8114.51177150316</v>
       </c>
       <c r="S5">
-        <v>0.135418685301319</v>
+        <v>0.03805803643964097</v>
       </c>
       <c r="T5">
-        <v>0.135418685301319</v>
+        <v>0.03805803643964096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>8589.763780583638</v>
@@ -818,10 +818,10 @@
         <v>77307.87402525275</v>
       </c>
       <c r="S6">
-        <v>0.2298944351115548</v>
+        <v>0.3625832298446739</v>
       </c>
       <c r="T6">
-        <v>0.2298944351115548</v>
+        <v>0.3625832298446739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>3694.878629898627</v>
@@ -880,10 +880,10 @@
         <v>33253.90766908764</v>
       </c>
       <c r="S7">
-        <v>0.09888887018597209</v>
+        <v>0.1559648276406596</v>
       </c>
       <c r="T7">
-        <v>0.0988888701859721</v>
+        <v>0.1559648276406596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>292.907699</v>
       </c>
       <c r="I8">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J8">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>2060.053173454086</v>
+        <v>367.0852719597544</v>
       </c>
       <c r="R8">
-        <v>18540.47856108678</v>
+        <v>3303.76744763779</v>
       </c>
       <c r="S8">
-        <v>0.05513478283087479</v>
+        <v>0.01549506679525182</v>
       </c>
       <c r="T8">
-        <v>0.0551347828308748</v>
+        <v>0.01549506679525181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>292.907699</v>
       </c>
       <c r="I9">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J9">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>3497.263022139087</v>
@@ -1004,10 +1004,10 @@
         <v>31475.36719925178</v>
       </c>
       <c r="S9">
-        <v>0.09359993213417167</v>
+        <v>0.1476232588665409</v>
       </c>
       <c r="T9">
-        <v>0.09359993213417168</v>
+        <v>0.1476232588665409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>292.907699</v>
       </c>
       <c r="I10">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J10">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>1504.344325841101</v>
@@ -1066,10 +1066,10 @@
         <v>13539.09893256991</v>
       </c>
       <c r="S10">
-        <v>0.04026192079743248</v>
+        <v>0.06350000283999824</v>
       </c>
       <c r="T10">
-        <v>0.04026192079743248</v>
+        <v>0.06350000283999821</v>
       </c>
     </row>
   </sheetData>
